--- a/geo-data/Book2.xlsx
+++ b/geo-data/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobt/Documents/grid/frontend/geo-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E3A754-5B65-054D-BCC7-D6A9911178F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619DCC4-05F8-6947-97F2-F836C3D6BF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{A9E6B3B6-5281-C742-B7B3-3DE64C0B96CB}"/>
+    <workbookView xWindow="2200" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{A9E6B3B6-5281-C742-B7B3-3DE64C0B96CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="63">
   <si>
     <t>William Shakespeare Plays</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Shipwrecks/ Storms</t>
+  </si>
+  <si>
+    <t>Cuckold Theme</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A16044-A7B8-3F44-868D-30911FFFD9CE}">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +623,10 @@
     <col min="10" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
     <col min="13" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="19" width="17.83203125" customWidth="1"/>
+    <col min="18" max="20" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +684,11 @@
       <c r="S1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -737,11 +743,17 @@
       <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -796,11 +808,17 @@
       <c r="R3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -855,11 +873,17 @@
       <c r="R4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -914,11 +938,17 @@
       <c r="R5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -973,11 +1003,17 @@
       <c r="R6" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="S6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1032,11 +1068,17 @@
       <c r="R7" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1091,11 +1133,17 @@
       <c r="R8" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="S8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1150,11 +1198,17 @@
       <c r="R9" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1209,11 +1263,17 @@
       <c r="R10" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1268,11 +1328,17 @@
       <c r="R11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1327,11 +1393,17 @@
       <c r="R12" t="s">
         <v>43</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="S12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1386,11 +1458,17 @@
       <c r="R13" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1445,11 +1523,17 @@
       <c r="R14" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1504,11 +1588,17 @@
       <c r="R15" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1563,11 +1653,17 @@
       <c r="R16" t="s">
         <v>43</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1622,11 +1718,17 @@
       <c r="R17" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="S17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1681,11 +1783,17 @@
       <c r="R18" t="s">
         <v>43</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1740,11 +1848,17 @@
       <c r="R19" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="S19" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1799,11 +1913,17 @@
       <c r="R20" t="s">
         <v>43</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="S20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1858,11 +1978,17 @@
       <c r="R21" t="s">
         <v>43</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1917,11 +2043,17 @@
       <c r="R22" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="S22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1976,11 +2108,17 @@
       <c r="R23" t="s">
         <v>43</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="S23" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2035,11 +2173,17 @@
       <c r="R24" t="s">
         <v>43</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2094,11 +2238,17 @@
       <c r="R25" t="s">
         <v>43</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2153,11 +2303,17 @@
       <c r="R26" t="s">
         <v>44</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="S26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2212,11 +2368,17 @@
       <c r="R27" t="s">
         <v>43</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="S27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" t="s">
+        <v>44</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2271,11 +2433,17 @@
       <c r="R28" t="s">
         <v>43</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="S28" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2330,11 +2498,17 @@
       <c r="R29" t="s">
         <v>43</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="S29" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s">
+        <v>43</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2389,11 +2563,17 @@
       <c r="R30" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2448,11 +2628,17 @@
       <c r="R31" t="s">
         <v>43</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2507,11 +2693,17 @@
       <c r="R32" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2566,11 +2758,17 @@
       <c r="R33" t="s">
         <v>43</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2625,11 +2823,17 @@
       <c r="R34" t="s">
         <v>43</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="S34" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2684,11 +2888,17 @@
       <c r="R35" t="s">
         <v>43</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="S35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2743,11 +2953,17 @@
       <c r="R36" t="s">
         <v>43</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="S36" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" t="s">
+        <v>43</v>
+      </c>
+      <c r="U36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2802,11 +3018,17 @@
       <c r="R37" t="s">
         <v>43</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="S37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" t="s">
+        <v>43</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2861,11 +3083,17 @@
       <c r="R38" t="s">
         <v>43</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="S38" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2920,141 +3148,147 @@
       <c r="R39" t="s">
         <v>43</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="S39" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" t="s">
+        <v>43</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T52" s="1"/>
-    </row>
-    <row r="53" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T55" s="1"/>
-    </row>
-    <row r="56" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T56" s="1"/>
-    </row>
-    <row r="57" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T58" s="1"/>
-    </row>
-    <row r="59" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T60" s="1"/>
-    </row>
-    <row r="61" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T61" s="1"/>
-    </row>
-    <row r="62" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T62" s="1"/>
-    </row>
-    <row r="63" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T63" s="1"/>
-    </row>
-    <row r="64" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T64" s="1"/>
-    </row>
-    <row r="65" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T65" s="1"/>
-    </row>
-    <row r="66" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T66" s="1"/>
-    </row>
-    <row r="67" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T67" s="1"/>
-    </row>
-    <row r="68" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T68" s="1"/>
-    </row>
-    <row r="69" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T69" s="1"/>
-    </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T70" s="1"/>
-    </row>
-    <row r="71" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T71" s="1"/>
-    </row>
-    <row r="72" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T72" s="1"/>
-    </row>
-    <row r="73" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T73" s="1"/>
-    </row>
-    <row r="74" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T75" s="1"/>
-    </row>
-    <row r="76" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T76" s="1"/>
-    </row>
-    <row r="77" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T77" s="1"/>
-    </row>
-    <row r="78" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T78" s="1"/>
-    </row>
-    <row r="79" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T79" s="1"/>
-    </row>
-    <row r="80" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T80" s="1"/>
-    </row>
-    <row r="81" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T81" s="1"/>
-    </row>
-    <row r="82" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T82" s="1"/>
-    </row>
-    <row r="83" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T83" s="1"/>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U64" s="1"/>
+    </row>
+    <row r="65" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geo-data/Book2.xlsx
+++ b/geo-data/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobt/Documents/grid/frontend/geo-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6619DCC4-05F8-6947-97F2-F836C3D6BF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D35D3-D2F7-2F4B-A952-1D75FAE3E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{A9E6B3B6-5281-C742-B7B3-3DE64C0B96CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="64">
   <si>
     <t>William Shakespeare Plays</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Cuckold Theme</t>
+  </si>
+  <si>
+    <t>Brothers in Rivalry</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A16044-A7B8-3F44-868D-30911FFFD9CE}">
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="A1:T1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L19:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,10 +626,10 @@
     <col min="10" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
     <col min="13" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="20" width="17.83203125" customWidth="1"/>
+    <col min="18" max="21" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="T1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -749,11 +755,14 @@
       <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -814,11 +823,14 @@
       <c r="T3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -879,11 +891,14 @@
       <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -944,11 +959,14 @@
       <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1009,11 +1027,14 @@
       <c r="T6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1074,11 +1095,14 @@
       <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1139,11 +1163,14 @@
       <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1204,11 +1231,14 @@
       <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1269,11 +1299,14 @@
       <c r="T10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1334,11 +1367,14 @@
       <c r="T11" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1399,11 +1435,14 @@
       <c r="T12" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1464,11 +1503,14 @@
       <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1529,11 +1571,14 @@
       <c r="T14" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1594,11 +1639,14 @@
       <c r="T15" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1659,11 +1707,14 @@
       <c r="T16" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1724,11 +1775,14 @@
       <c r="T17" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
+        <v>43</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1789,11 +1843,14 @@
       <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1854,11 +1911,14 @@
       <c r="T19" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1919,11 +1979,14 @@
       <c r="T20" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
+        <v>43</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1984,11 +2047,14 @@
       <c r="T21" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2049,11 +2115,14 @@
       <c r="T22" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2114,11 +2183,14 @@
       <c r="T23" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="U23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2179,11 +2251,14 @@
       <c r="T24" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2244,11 +2319,14 @@
       <c r="T25" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2309,11 +2387,14 @@
       <c r="T26" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2374,11 +2455,14 @@
       <c r="T27" t="s">
         <v>44</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="U27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2439,11 +2523,14 @@
       <c r="T28" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2504,11 +2591,14 @@
       <c r="T29" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="U29" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -2569,11 +2659,14 @@
       <c r="T30" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2634,11 +2727,14 @@
       <c r="T31" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="1" t="s">
+      <c r="U31" t="s">
+        <v>43</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2699,11 +2795,14 @@
       <c r="T32" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="U32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2764,11 +2863,14 @@
       <c r="T33" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" t="s">
+        <v>43</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2829,11 +2931,14 @@
       <c r="T34" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="U34" t="s">
+        <v>43</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2894,11 +2999,14 @@
       <c r="T35" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U35" t="s">
+        <v>43</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2959,11 +3067,14 @@
       <c r="T36" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U36" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -3024,11 +3135,14 @@
       <c r="T37" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -3089,11 +3203,14 @@
       <c r="T38" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="U38" t="s">
+        <v>44</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3154,141 +3271,144 @@
       <c r="T39" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U39" t="s">
+        <v>43</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U40" s="1"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U46" s="1"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U47" s="1"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U53" s="1"/>
-    </row>
-    <row r="54" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U54" s="1"/>
-    </row>
-    <row r="55" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U55" s="1"/>
-    </row>
-    <row r="56" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U56" s="1"/>
-    </row>
-    <row r="57" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U57" s="1"/>
-    </row>
-    <row r="58" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U58" s="1"/>
-    </row>
-    <row r="59" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U59" s="1"/>
-    </row>
-    <row r="60" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U60" s="1"/>
-    </row>
-    <row r="61" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U61" s="1"/>
-    </row>
-    <row r="62" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U62" s="1"/>
-    </row>
-    <row r="63" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U63" s="1"/>
-    </row>
-    <row r="64" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U64" s="1"/>
-    </row>
-    <row r="65" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U69" s="1"/>
-    </row>
-    <row r="70" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U74" s="1"/>
-    </row>
-    <row r="75" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U80" s="1"/>
-    </row>
-    <row r="81" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U81" s="1"/>
-    </row>
-    <row r="82" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U82" s="1"/>
-    </row>
-    <row r="83" spans="21:21" x14ac:dyDescent="0.2">
-      <c r="U83" s="1"/>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
